--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.16.1.65\GameSP_2020\15_プロジェクト制作演習\01_提出\02_仕様書(12月24日〆)\Team_Washletter's\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\チーム制作\Chinpository\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>人間</t>
     <rPh sb="0" eb="2">
@@ -132,6 +132,19 @@
       <t>フリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鶴間</t>
+  </si>
+  <si>
+    <t>和式トイレ</t>
+    <rPh sb="0" eb="2">
+      <t>ワシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一戸</t>
   </si>
 </sst>
 </file>
@@ -194,28 +207,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -248,34 +240,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -562,7 +526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G8"/>
+  <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -621,7 +585,7 @@
         <v>12</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" ref="G4:G8" si="0">IF(E4&lt;&gt;"",IF(F4&lt;&gt;"","完成","未完成"),"未着手")</f>
+        <f t="shared" ref="G4:G9" si="0">IF(E4&lt;&gt;"",IF(F4&lt;&gt;"","完成","未完成"),"未着手")</f>
         <v>未着手</v>
       </c>
     </row>
@@ -635,9 +599,12 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>未着手</v>
+        <v>未完成</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
@@ -685,32 +652,47 @@
         <v>未着手</v>
       </c>
     </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>未完成</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="D3:D24">
-    <cfRule type="expression" dxfId="8" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>D3="操作キャラ"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>D3="障害物"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>D3="敵"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G24">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>G3="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>G3="未完成"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>G3="完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E9">
       <formula1>"一戸,坂口,鶴間,原田,藤田,三橋"</formula1>
     </dataValidation>
   </dataValidations>
